--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1465918.57122956</v>
+        <v>-1467868.79705812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>171.3692540233471</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>103.0886484964623</v>
+        <v>281.1607733806431</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.1498336210771</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>68.49439899867242</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>75.13651949521419</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>282.0910609055166</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>140.8171000393984</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.3466798447466</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>101.3664845421347</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.91143958001541</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>234.9945952735576</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>44.83787563381176</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>31.31644572559174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.93461149148743</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>261.669338696836</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>161.6195484041295</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.7102965283838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>32.04608311830555</v>
+        <v>91.33209909790602</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857135</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463094</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329022</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1441.877650674877</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>1072.915133734465</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>714.6494351277149</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>714.6494351277149</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>707.7039343785115</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.016982650689</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X2" t="n">
-        <v>1832.016982650689</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1441.877650674877</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,43 +4407,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>297.227836124274</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>283.3044320628649</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2059.43997018698</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>564.1527310008552</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1079.050949648032</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>720.7852510412811</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>720.7852510412811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>309.7993462516735</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.44116270037</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628418</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628418</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5045,13 +5045,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.9958217162123</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W13" t="n">
-        <v>895.7884008597424</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X13" t="n">
-        <v>895.7884008597424</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.9958217162123</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>404.4604747588918</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1132.42297844904</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>843.0058084120794</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>615.0162575140621</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.223678370532</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1415.143935718016</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1191.358520507522</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>902.2298817210801</v>
+        <v>899.7432885790962</v>
       </c>
       <c r="V19" t="n">
-        <v>902.2298817210801</v>
+        <v>645.0588003732094</v>
       </c>
       <c r="W19" t="n">
-        <v>612.8127116841194</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="X19" t="n">
-        <v>612.8127116841194</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>526.9050513325897</v>
+        <v>985.4001231459582</v>
       </c>
       <c r="C22" t="n">
-        <v>357.9688684046828</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D22" t="n">
-        <v>357.9688684046828</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>210.0557748222897</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>754.894602230607</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>526.9050513325897</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y22" t="n">
-        <v>526.9050513325897</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,37 +5972,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>553.0935746802515</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1321.461721072713</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>595.5296422260202</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C25" t="n">
-        <v>426.5934592981133</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="D25" t="n">
-        <v>276.4768198857776</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="E25" t="n">
-        <v>276.4768198857776</v>
+        <v>189.4717370137263</v>
       </c>
       <c r="F25" t="n">
-        <v>129.5868723878672</v>
+        <v>189.4717370137263</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>816.3222213695503</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.5296422260202</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6364,25 +6364,25 @@
         <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
         <v>394.6863306254957</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,28 +6452,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
         <v>320.8847398504514</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,7 +6874,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504513</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506735</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083215</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504522</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045215</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010325</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,16 +7497,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>18.73797368291326</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8719470256804</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>19.14409596997086</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>246.1523202209507</v>
+        <v>68.08019533676986</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>37.29741726224505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>157.2152563903647</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>60.5827308840385</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836042</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>51.52840306303341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.5831723891195</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>220.8211975982363</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>114.9861984921158</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>24.56801370174139</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.627272694498373</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.71075149454747</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>134.447485345072</v>
+        <v>75.16146936547156</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770932</v>
+        <v>96832.57803770927</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,13 +26323,13 @@
         <v>97757.26493442721</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442718</v>
       </c>
       <c r="I2" t="n">
         <v>97757.26493442722</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>121444.2179016484</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007466</v>
+        <v>7916.73165600752</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
@@ -26442,22 +26442,22 @@
         <v>30335.51889732795</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-697438.5971418929</v>
+        <v>-697554.5500057996</v>
       </c>
       <c r="C6" t="n">
         <v>-128145.9055462949</v>
       </c>
       <c r="D6" t="n">
-        <v>-128145.905546295</v>
+        <v>-128145.9055462949</v>
       </c>
       <c r="E6" t="n">
-        <v>-527306.829147193</v>
+        <v>-527404.2882731651</v>
       </c>
       <c r="F6" t="n">
-        <v>-2146.792670296869</v>
+        <v>-2244.251796269091</v>
       </c>
       <c r="G6" t="n">
-        <v>-2146.792670296913</v>
+        <v>-2244.251796269048</v>
       </c>
       <c r="H6" t="n">
-        <v>-2146.792670296883</v>
+        <v>-2244.251796269091</v>
       </c>
       <c r="I6" t="n">
-        <v>-2146.79267029684</v>
+        <v>-2244.251796269048</v>
       </c>
       <c r="J6" t="n">
         <v>-256349.1347806233</v>
@@ -26555,13 +26555,13 @@
         <v>-160221.418718155</v>
       </c>
       <c r="N6" t="n">
-        <v>-25420.40348431781</v>
+        <v>-25420.40348431779</v>
       </c>
       <c r="O6" t="n">
-        <v>-79925.9155880303</v>
+        <v>-79925.91558803033</v>
       </c>
       <c r="P6" t="n">
-        <v>-25420.40348431779</v>
+        <v>-25420.40348431782</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>242.4149159974479</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>130.0123849968058</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>63.13204062090065</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>248.7862532691429</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>87.64003977295243</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>5.616862607170788</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>49.80904827649567</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.387161818734</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>312.4176854786603</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>105.5225230665538</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>267.9956786389376</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>479.9653619572051</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>682.9598737318699</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>301.507798211079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,16 +38184,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
